--- a/Analysis/wraight_digit_span_log.xlsx
+++ b/Analysis/wraight_digit_span_log.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a77ded506e32178a/Tartu Ülikool/AI and NI/Digit_Span_Trainer/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F93592-2BE1-4242-A6A7-4A6EF403B470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B6F93592-2BE1-4242-A6A7-4A6EF403B470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0F5F7B9-6BD7-4336-84FE-B3A53DDA0400}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wraight_digit_span_log" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">wraight_digit_span_log!$A$1:$V$540</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -130,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -985,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="V92" sqref="V92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36136,6 +36139,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V540" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>